--- a/CapturaDis22/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22/Reportes/Preguntas y respuestas.xlsx
@@ -81,24 +81,6 @@
     <t>5) Mario Herrera Arzola</t>
   </si>
   <si>
-    <t>6) Conchita Cazares</t>
-  </si>
-  <si>
-    <t>7) Julián Peña</t>
-  </si>
-  <si>
-    <t>8) Pedro Fernández Carrera</t>
-  </si>
-  <si>
-    <t>9) Daniel Vargas Bello</t>
-  </si>
-  <si>
-    <t>10) Ignacio Espinosa Pliego</t>
-  </si>
-  <si>
-    <t>11) Héctor Mendoza Herrera</t>
-  </si>
-  <si>
     <t>9.1.1 - ¿Ha oído hablar de: ?</t>
   </si>
   <si>
@@ -219,51 +201,6 @@
     <t>9.8.5</t>
   </si>
   <si>
-    <t>9.9.1</t>
-  </si>
-  <si>
-    <t>9.9.2</t>
-  </si>
-  <si>
-    <t>9.9.3</t>
-  </si>
-  <si>
-    <t>9.9.4</t>
-  </si>
-  <si>
-    <t>9.9.5</t>
-  </si>
-  <si>
-    <t>9.10.1</t>
-  </si>
-  <si>
-    <t>9.10.2</t>
-  </si>
-  <si>
-    <t>9.10.3</t>
-  </si>
-  <si>
-    <t>9.10.4</t>
-  </si>
-  <si>
-    <t>9.10.5</t>
-  </si>
-  <si>
-    <t>9.11.1</t>
-  </si>
-  <si>
-    <t>9.11.2</t>
-  </si>
-  <si>
-    <t>9.11.3</t>
-  </si>
-  <si>
-    <t>9.11.4</t>
-  </si>
-  <si>
-    <t>9.11.5</t>
-  </si>
-  <si>
     <t>10.- ¿Quién de los nombres que le acabo de leer le gustaría que fuera  Diputado Local por este Distrito?</t>
   </si>
   <si>
@@ -271,13 +208,76 @@
   </si>
   <si>
     <t>12.- Independientemente de por quién va a votar, ¿quién cree que ganará las elecciones para Diputado Local en este Distrito?</t>
+  </si>
+  <si>
+    <t>6) Pedro Fernández Carrera</t>
+  </si>
+  <si>
+    <t>7) Eduardo Vargas Guerrero</t>
+  </si>
+  <si>
+    <t>8) Conchita Cazares</t>
+  </si>
+  <si>
+    <t>opciones</t>
+  </si>
+  <si>
+    <t>1 )</t>
+  </si>
+  <si>
+    <t>2 )</t>
+  </si>
+  <si>
+    <t>3 )</t>
+  </si>
+  <si>
+    <t>4 )</t>
+  </si>
+  <si>
+    <t>5 )</t>
+  </si>
+  <si>
+    <t>6 )</t>
+  </si>
+  <si>
+    <t>7 )</t>
+  </si>
+  <si>
+    <t>8 )</t>
+  </si>
+  <si>
+    <t>9 )</t>
+  </si>
+  <si>
+    <t>10 )</t>
+  </si>
+  <si>
+    <t>11 )</t>
+  </si>
+  <si>
+    <t>12 )</t>
+  </si>
+  <si>
+    <t>13 )</t>
+  </si>
+  <si>
+    <t>14 )</t>
+  </si>
+  <si>
+    <t>15 )</t>
+  </si>
+  <si>
+    <t>16 )</t>
+  </si>
+  <si>
+    <t>17 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +296,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,6 +359,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,56 +643,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT3"/>
+  <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
-      <selection activeCell="BS4" sqref="BS4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="64" max="64" width="30.28515625" customWidth="1"/>
-    <col min="65" max="65" width="21.28515625" customWidth="1"/>
-    <col min="66" max="66" width="20.85546875" customWidth="1"/>
-    <col min="67" max="67" width="13.42578125" customWidth="1"/>
-    <col min="68" max="68" width="17.42578125" customWidth="1"/>
-    <col min="69" max="69" width="19.42578125" customWidth="1"/>
-    <col min="70" max="70" width="26.28515625" customWidth="1"/>
-    <col min="71" max="71" width="24.42578125" customWidth="1"/>
-    <col min="72" max="72" width="20.7109375" customWidth="1"/>
+    <col min="2" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="50" max="50" width="30.28515625" customWidth="1"/>
+    <col min="51" max="51" width="21.28515625" customWidth="1"/>
+    <col min="52" max="52" width="20.85546875" customWidth="1"/>
+    <col min="53" max="53" width="13.42578125" customWidth="1"/>
+    <col min="54" max="54" width="17.42578125" customWidth="1"/>
+    <col min="55" max="55" width="19.42578125" customWidth="1"/>
+    <col min="56" max="56" width="26.28515625" customWidth="1"/>
+    <col min="57" max="57" width="24.42578125" customWidth="1"/>
+    <col min="58" max="58" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:58" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -721,50 +734,36 @@
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BM1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BN1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:58" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -772,95 +771,75 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
-      <c r="AM2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
-      <c r="AR2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
-      <c r="AW2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="BR2" s="4"/>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-    </row>
-    <row r="3" spans="1:72" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+    </row>
+    <row r="3" spans="1:58" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -868,212 +847,251 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AQ3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="AY3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>69</v>
       </c>
-      <c r="BA3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="BB3" s="3" t="s">
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="BC3" s="3" t="s">
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>72</v>
       </c>
-      <c r="BD3" s="3" t="s">
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="BE3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
-      <c r="BF3" s="3" t="s">
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>75</v>
       </c>
-      <c r="BG3" s="3" t="s">
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="BH3" s="3" t="s">
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
-      <c r="BI3" s="3" t="s">
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="BJ3" s="3" t="s">
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
-      <c r="BK3" s="3" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>80</v>
       </c>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="BR1:BR3"/>
-    <mergeCell ref="BS1:BS3"/>
-    <mergeCell ref="I1:BK1"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="BT1:BT3"/>
-    <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="BO1:BO3"/>
-    <mergeCell ref="BP1:BP3"/>
-    <mergeCell ref="BQ1:BQ3"/>
+  <mergeCells count="27">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AH2:AL2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AD2:AH2"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="BB1:BB3"/>
+    <mergeCell ref="AS2:AW2"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="J1:AW1"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="AZ1:AZ3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="BC1:BC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CapturaDis22/Reportes/Preguntas y respuestas.xlsx
+++ b/CapturaDis22/Reportes/Preguntas y respuestas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>1.- ¿Comparada con el año pasado, ¿cómo diría que está actualmente su situación económica personal?</t>
   </si>
@@ -84,18 +84,6 @@
     <t>9.1.1 - ¿Ha oído hablar de: ?</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.2 - Informacion adicional </t>
-  </si>
-  <si>
-    <t>9.1.3 - ¿De qué partido político es?</t>
-  </si>
-  <si>
-    <t>9.1.4 - ¿Ud. Votaría por él para DIPUTADO LOCAL?</t>
-  </si>
-  <si>
-    <t>9.1.5 -¿Qué opinión tiene de él / ella?</t>
-  </si>
-  <si>
     <t>9.2.1</t>
   </si>
   <si>
@@ -108,9 +96,6 @@
     <t>9.2.4</t>
   </si>
   <si>
-    <t>9.2.5</t>
-  </si>
-  <si>
     <t>9.3.1</t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>9.3.4</t>
   </si>
   <si>
-    <t>9.3.5</t>
-  </si>
-  <si>
     <t>9.4.1</t>
   </si>
   <si>
@@ -138,9 +120,6 @@
     <t>9.4.4</t>
   </si>
   <si>
-    <t>9.4.5</t>
-  </si>
-  <si>
     <t>9.5.1</t>
   </si>
   <si>
@@ -153,9 +132,6 @@
     <t>9.5.4</t>
   </si>
   <si>
-    <t>9.5.5</t>
-  </si>
-  <si>
     <t>9.6.1</t>
   </si>
   <si>
@@ -168,9 +144,6 @@
     <t>9.6.4</t>
   </si>
   <si>
-    <t>9.6.5</t>
-  </si>
-  <si>
     <t>9.7.1</t>
   </si>
   <si>
@@ -183,9 +156,6 @@
     <t>9.7.4</t>
   </si>
   <si>
-    <t>9.7.5</t>
-  </si>
-  <si>
     <t>9.8.1</t>
   </si>
   <si>
@@ -198,9 +168,6 @@
     <t>9.8.4</t>
   </si>
   <si>
-    <t>9.8.5</t>
-  </si>
-  <si>
     <t>10.- ¿Quién de los nombres que le acabo de leer le gustaría que fuera  Diputado Local por este Distrito?</t>
   </si>
   <si>
@@ -271,6 +238,15 @@
   </si>
   <si>
     <t>17 )</t>
+  </si>
+  <si>
+    <t>9.1.2 - ¿De qué partido político es?</t>
+  </si>
+  <si>
+    <t>9.1.3 - ¿Ud. Votaría por él para DIPUTADO LOCAL?</t>
+  </si>
+  <si>
+    <t>9.1.4 -¿Qué opinión tiene de él / ella?</t>
   </si>
 </sst>
 </file>
@@ -354,14 +330,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,455 +619,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BF20"/>
+  <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="50" max="50" width="30.28515625" customWidth="1"/>
-    <col min="51" max="51" width="21.28515625" customWidth="1"/>
-    <col min="52" max="52" width="20.85546875" customWidth="1"/>
-    <col min="53" max="53" width="13.42578125" customWidth="1"/>
-    <col min="54" max="54" width="17.42578125" customWidth="1"/>
-    <col min="55" max="55" width="19.42578125" customWidth="1"/>
-    <col min="56" max="56" width="26.28515625" customWidth="1"/>
-    <col min="57" max="57" width="24.42578125" customWidth="1"/>
-    <col min="58" max="58" width="20.7109375" customWidth="1"/>
+    <col min="42" max="42" width="30.28515625" customWidth="1"/>
+    <col min="43" max="43" width="21.28515625" customWidth="1"/>
+    <col min="44" max="44" width="20.85546875" customWidth="1"/>
+    <col min="45" max="45" width="13.42578125" customWidth="1"/>
+    <col min="46" max="46" width="17.42578125" customWidth="1"/>
+    <col min="47" max="47" width="19.42578125" customWidth="1"/>
+    <col min="48" max="48" width="26.28515625" customWidth="1"/>
+    <col min="49" max="49" width="24.42578125" customWidth="1"/>
+    <col min="50" max="50" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA1" s="4" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="AT1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="AU1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="AV1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="AW1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="AX1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:58" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO2" s="5"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>
-      <c r="AS2" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-    </row>
-    <row r="3" spans="1:58" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="AX2" s="5"/>
+    </row>
+    <row r="3" spans="1:50" s="2" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AM3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="AU3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="AW3" s="3" t="s">
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>59</v>
       </c>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-    </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AR1:AR3"/>
+    <mergeCell ref="AQ1:AQ3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="J1:AO1"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="AD2:AH2"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="BB1:BB3"/>
-    <mergeCell ref="AS2:AW2"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="J1:AW1"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="AZ1:AZ3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="BC1:BC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
